--- a/Assets/Res/Arts/FBX/OneHand/OneHandAnimClip.xlsx
+++ b/Assets/Res/Arts/FBX/OneHand/OneHandAnimClip.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
-  <si>
-    <t>模型名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>模型名称</t>
   </si>
   <si>
     <t>动画片段名</t>
@@ -46,16 +46,22 @@
     <t>loop</t>
   </si>
   <si>
-    <t>boss_baoxiang@amt</t>
-  </si>
-  <si>
-    <t>Idle</t>
+    <t>OneHandAMT</t>
+  </si>
+  <si>
+    <t>Stand</t>
   </si>
   <si>
     <t>Hit</t>
   </si>
   <si>
     <t>Dead</t>
+  </si>
+  <si>
+    <t>Attack1</t>
+  </si>
+  <si>
+    <t>Attack1Back</t>
   </si>
 </sst>
 </file>
@@ -64,8 +70,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -84,6 +90,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -93,6 +114,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -100,7 +173,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -108,7 +181,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,100 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,19 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,13 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,145 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +427,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,15 +476,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,32 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,16 +1009,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1" customWidth="1"/>
     <col min="3" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
@@ -1060,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
@@ -1100,6 +1105,40 @@
         <v>45</v>
       </c>
       <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3">
         <v>0</v>
       </c>
     </row>
